--- a/Week-3/18_April/holiday_calendar.xlsx
+++ b/Week-3/18_April/holiday_calendar.xlsx
@@ -463,7 +463,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> India</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -485,7 +485,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Vietnam</t>
+          <t>Vietnam</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -500,40 +500,40 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vietnam</t>
-        </is>
-      </c>
+      <c r="A4" t="inlineStr"/>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>Hanoi Stock Exchange</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Hung Vuong King's Day</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Zimbabwe</t>
-        </is>
-      </c>
+      <c r="A5" t="inlineStr"/>
       <c r="B5" t="inlineStr">
         <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
           <t>Zimbabwe Stock Exchange</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>Independence Day</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -543,7 +543,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Argentina</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -558,22 +558,22 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Venezuela</t>
-        </is>
-      </c>
+      <c r="A7" t="inlineStr"/>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>Caracas Stock Exchange</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>Independence Day</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Israel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -605,7 +605,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Israel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -620,40 +620,40 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sri Lanka</t>
-        </is>
-      </c>
+      <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr">
         <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
           <t>Colombo Stock Exchange</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>National Day</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Türkiye</t>
-        </is>
-      </c>
+      <c r="A11" t="inlineStr"/>
       <c r="B11" t="inlineStr">
         <is>
+          <t>Türkiye</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
           <t>Istanbul Stock Exchange</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="D11" t="inlineStr">
         <is>
           <t>Children's Day</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -663,7 +663,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Israel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -685,7 +685,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Australia</t>
+          <t>Australia</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -700,76 +700,76 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Egypt</t>
-        </is>
-      </c>
+      <c r="A14" t="inlineStr"/>
       <c r="B14" t="inlineStr">
         <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
           <t>Egypt Stock Exchange</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="D14" t="inlineStr">
         <is>
           <t>Liberation Day</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iceland</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
       <c r="B15" t="inlineStr">
         <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
           <t>Iceland Stock Exchange</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="D15" t="inlineStr">
         <is>
           <t>National Day</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Israel</t>
-        </is>
-      </c>
+      <c r="A16" t="inlineStr"/>
       <c r="B16" t="inlineStr">
         <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
           <t>Tel Aviv Stock Exchange</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="D16" t="inlineStr">
         <is>
           <t>Passover - Early close at 14:14</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> New Zealand</t>
-        </is>
-      </c>
+      <c r="A17" t="inlineStr"/>
       <c r="B17" t="inlineStr">
         <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
           <t>New Zealand Exchange</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>ANZAC Day</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Tanzania</t>
+          <t>Tanzania</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -801,7 +801,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Israel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -823,7 +823,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Israel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -838,22 +838,22 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Japan</t>
-        </is>
-      </c>
+      <c r="A21" t="inlineStr"/>
       <c r="B21" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
           <t>Tokyo Stock Exchange</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="D21" t="inlineStr">
         <is>
           <t>Showa Day</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -863,7 +863,7 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Sweden</t>
+          <t>Sweden</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -878,40 +878,40 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vietnam</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
       <c r="B23" t="inlineStr">
         <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
           <t>Hanoi Stock Exchange</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="D23" t="inlineStr">
         <is>
           <t>Liberation Day</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vietnam</t>
-        </is>
-      </c>
+      <c r="A24" t="inlineStr"/>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
           <t>Ho Chi Minh City Stock Exchange</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Liberation Day</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -921,7 +921,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Argentina</t>
+          <t>Argentina</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -936,1390 +936,1390 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Austria</t>
-        </is>
-      </c>
+      <c r="A26" t="inlineStr"/>
       <c r="B26" t="inlineStr">
         <is>
+          <t>Austria</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
           <t>Vienna Stock Exchange</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="D26" t="inlineStr">
         <is>
           <t>National Day</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bahrain</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
       <c r="B27" t="inlineStr">
         <is>
+          <t>Bahrain</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
           <t>Bahrain Stock Exchange</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bangladesh</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr"/>
       <c r="B28" t="inlineStr">
         <is>
+          <t>Bangladesh</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
           <t>Dhaka Stock Exchange</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Belgium</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr"/>
       <c r="B29" t="inlineStr">
         <is>
+          <t>Belgium</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
           <t>Brussels Stock Exchange</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bosnia-Herzegovina</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
       <c r="B30" t="inlineStr">
         <is>
+          <t>Bosnia-Herzegovina</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
           <t>Bosnia</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Botswana</t>
-        </is>
-      </c>
+      <c r="A31" t="inlineStr"/>
       <c r="B31" t="inlineStr">
         <is>
+          <t>Botswana</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
           <t>Botswana Stock Exchange</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Brazil</t>
-        </is>
-      </c>
+      <c r="A32" t="inlineStr"/>
       <c r="B32" t="inlineStr">
         <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
           <t>B3 Stock Exchange</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bulgaria</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
       <c r="B33" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>Sofia Stock Exchange</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Chile</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
       <c r="B34" t="inlineStr">
         <is>
+          <t>Chile</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
           <t>Santiago Stock Exchange</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China</t>
-        </is>
-      </c>
+      <c r="A35" t="inlineStr"/>
       <c r="B35" t="inlineStr">
         <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
           <t>Shanghai Stock Exchange</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China</t>
-        </is>
-      </c>
+      <c r="A36" t="inlineStr"/>
       <c r="B36" t="inlineStr">
         <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
           <t>Shenzhen Stock Exchange</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Colombia</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Colombia</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
           <t>Colombia Stock Exchange</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Costa Rica</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
       <c r="B38" t="inlineStr">
         <is>
+          <t>Costa Rica</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
           <t>Costa Rica Stock Exchange</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Croatia</t>
-        </is>
-      </c>
+      <c r="A39" t="inlineStr"/>
       <c r="B39" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
           <t>Zagreb Stock Exchange</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cyprus</t>
-        </is>
-      </c>
+      <c r="A40" t="inlineStr"/>
       <c r="B40" t="inlineStr">
         <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
           <t>Cyprus Stock Exchange</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Czech Republic</t>
-        </is>
-      </c>
+      <c r="A41" t="inlineStr"/>
       <c r="B41" t="inlineStr">
         <is>
+          <t>Czech Republic</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
           <t>Prague Stock Exchange</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Egypt</t>
-        </is>
-      </c>
+      <c r="A42" t="inlineStr"/>
       <c r="B42" t="inlineStr">
         <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
           <t>Egypt Stock Exchange</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Estonia</t>
-        </is>
-      </c>
+      <c r="A43" t="inlineStr"/>
       <c r="B43" t="inlineStr">
         <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>Tallinn Stock Exchange</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Finland</t>
-        </is>
-      </c>
+      <c r="A44" t="inlineStr"/>
       <c r="B44" t="inlineStr">
         <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
           <t>Helsinki Stock Exchange</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> France</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
       <c r="B45" t="inlineStr">
         <is>
+          <t>France</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
           <t>Paris Stock Exchange</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Germany</t>
-        </is>
-      </c>
+      <c r="A46" t="inlineStr"/>
       <c r="B46" t="inlineStr">
         <is>
+          <t>Germany</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
           <t>Frankfurt Stock Exchange</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Greece</t>
-        </is>
-      </c>
+      <c r="A47" t="inlineStr"/>
       <c r="B47" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
           <t>Athens Stock Exchange</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hong Kong</t>
-        </is>
-      </c>
+      <c r="A48" t="inlineStr"/>
       <c r="B48" t="inlineStr">
         <is>
+          <t>Hong Kong</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
           <t>Hong Kong Stock Exchange</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hungary</t>
-        </is>
-      </c>
+      <c r="A49" t="inlineStr"/>
       <c r="B49" t="inlineStr">
         <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
           <t>Budapest Stock Exchange</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iceland</t>
-        </is>
-      </c>
+      <c r="A50" t="inlineStr"/>
       <c r="B50" t="inlineStr">
         <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
           <t>Iceland Stock Exchange</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> India</t>
-        </is>
-      </c>
+      <c r="A51" t="inlineStr"/>
       <c r="B51" t="inlineStr">
         <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
           <t>India National Stock Exchange</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Maharashtra Day</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Indonesia</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
       <c r="B52" t="inlineStr">
         <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
           <t>Jakarta Stock Exchange</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ireland</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
       <c r="B53" t="inlineStr">
         <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
           <t>Ireland Stock Exchange</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Italy</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
       <c r="B54" t="inlineStr">
         <is>
+          <t>Italy</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
           <t>Milan Stock Exchange</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jordan</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
       <c r="B55" t="inlineStr">
         <is>
+          <t>Jordan</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
           <t>Amman Stock Exchange</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kazakhstan</t>
-        </is>
-      </c>
+      <c r="A56" t="inlineStr"/>
       <c r="B56" t="inlineStr">
         <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
           <t>Kazakhstan Stock exchange</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="D56" t="inlineStr">
         <is>
           <t>Unity Day</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kenya</t>
-        </is>
-      </c>
+      <c r="A57" t="inlineStr"/>
       <c r="B57" t="inlineStr">
         <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
           <t>Kenya Stock Exchange</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Latvia</t>
-        </is>
-      </c>
+      <c r="A58" t="inlineStr"/>
       <c r="B58" t="inlineStr">
         <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
           <t>NASDAQ OMX Riga</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lebanon</t>
-        </is>
-      </c>
+      <c r="A59" t="inlineStr"/>
       <c r="B59" t="inlineStr">
         <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
           <t>Beirut Stock Exchange</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lithuania</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
       <c r="B60" t="inlineStr">
         <is>
+          <t>Lithuania</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>Vilnius Stock Exchange</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Luxembourg</t>
-        </is>
-      </c>
+      <c r="A61" t="inlineStr"/>
       <c r="B61" t="inlineStr">
         <is>
+          <t>Luxembourg</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
           <t>Luxembourg Stock Exchange</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Malaysia</t>
-        </is>
-      </c>
+      <c r="A62" t="inlineStr"/>
       <c r="B62" t="inlineStr">
         <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
           <t>Kuala Lumpur Stock Exchange</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Malta</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
       <c r="B63" t="inlineStr">
         <is>
+          <t>Malta</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
           <t>Malta Stock Exchange</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mauritius</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
       <c r="B64" t="inlineStr">
         <is>
+          <t>Mauritius</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
           <t>Stock Exchange of Mauritius</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mexico</t>
-        </is>
-      </c>
+      <c r="A65" t="inlineStr"/>
       <c r="B65" t="inlineStr">
         <is>
+          <t>Mexico</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
           <t>Mexico Stock Exchange</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Montenegro</t>
-        </is>
-      </c>
+      <c r="A66" t="inlineStr"/>
       <c r="B66" t="inlineStr">
         <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
           <t>Montenegro Stock Exchange</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Morocco</t>
-        </is>
-      </c>
+      <c r="A67" t="inlineStr"/>
       <c r="B67" t="inlineStr">
         <is>
+          <t>Morocco</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
           <t>Casablanca Stock Exchange</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Namibia</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
       <c r="B68" t="inlineStr">
         <is>
+          <t>Namibia</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
           <t>Namibia Stock Exchange</t>
         </is>
       </c>
-      <c r="C68" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Netherlands</t>
-        </is>
-      </c>
+      <c r="A69" t="inlineStr"/>
       <c r="B69" t="inlineStr">
         <is>
+          <t>Netherlands</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
           <t>Amsterdam Stock Exchange</t>
         </is>
       </c>
-      <c r="C69" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Nigeria</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
       <c r="B70" t="inlineStr">
         <is>
+          <t>Nigeria</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
           <t>Lagos</t>
         </is>
       </c>
-      <c r="C70" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Norway</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
       <c r="B71" t="inlineStr">
         <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
           <t>Oslo Stock Exchange</t>
         </is>
       </c>
-      <c r="C71" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Pakistan</t>
-        </is>
-      </c>
+      <c r="A72" t="inlineStr"/>
       <c r="B72" t="inlineStr">
         <is>
+          <t>Pakistan</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
           <t>Karachi Stock Exchange</t>
         </is>
       </c>
-      <c r="C72" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Labour Day</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Palestinian Territory</t>
-        </is>
-      </c>
+      <c r="A73" t="inlineStr"/>
       <c r="B73" t="inlineStr">
         <is>
+          <t>Palestinian Territory</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
           <t>Ramallah Stock Exchange</t>
         </is>
       </c>
-      <c r="C73" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Peru</t>
-        </is>
-      </c>
+      <c r="A74" t="inlineStr"/>
       <c r="B74" t="inlineStr">
         <is>
+          <t>Peru</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
           <t>Lima Stock Exchange</t>
         </is>
       </c>
-      <c r="C74" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Philippines</t>
-        </is>
-      </c>
+      <c r="A75" t="inlineStr"/>
       <c r="B75" t="inlineStr">
         <is>
+          <t>Philippines</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
           <t>Philippines Stock Exchange</t>
         </is>
       </c>
-      <c r="C75" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Poland</t>
-        </is>
-      </c>
+      <c r="A76" t="inlineStr"/>
       <c r="B76" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
           <t>Warsaw Stock Exchange</t>
         </is>
       </c>
-      <c r="C76" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Portugal</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
       <c r="B77" t="inlineStr">
         <is>
+          <t>Portugal</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
           <t>Lisbon Stock Exchange</t>
         </is>
       </c>
-      <c r="C77" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Romania</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
       <c r="B78" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
           <t>Bucharest Stock Exchange</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Russia</t>
-        </is>
-      </c>
+      <c r="A79" t="inlineStr"/>
       <c r="B79" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
           <t>Moscow Stock Exchange</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Rwanda</t>
-        </is>
-      </c>
+      <c r="A80" t="inlineStr"/>
       <c r="B80" t="inlineStr">
         <is>
+          <t>Rwanda</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
           <t>Rwanda Stock Exchange</t>
         </is>
       </c>
-      <c r="C80" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Serbia</t>
-        </is>
-      </c>
+      <c r="A81" t="inlineStr"/>
       <c r="B81" t="inlineStr">
         <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
           <t>Belgrade</t>
         </is>
       </c>
-      <c r="C81" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Singapore</t>
-        </is>
-      </c>
+      <c r="A82" t="inlineStr"/>
       <c r="B82" t="inlineStr">
         <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
           <t>Singapore Stock Exchange</t>
         </is>
       </c>
-      <c r="C82" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Slovakia</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
       <c r="B83" t="inlineStr">
         <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
           <t>Bratislava Stock Exchange</t>
         </is>
       </c>
-      <c r="C83" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Slovenia</t>
-        </is>
-      </c>
+      <c r="A84" t="inlineStr"/>
       <c r="B84" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
           <t>Ljubljana Stock Exchange</t>
         </is>
       </c>
-      <c r="C84" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Africa</t>
-        </is>
-      </c>
+      <c r="A85" t="inlineStr"/>
       <c r="B85" t="inlineStr">
         <is>
+          <t>South Africa</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
           <t>Johannesburg Stock Exchange</t>
         </is>
       </c>
-      <c r="C85" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Korea</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
       <c r="B86" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
           <t>Seoul Stock Exchange</t>
         </is>
       </c>
-      <c r="C86" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Korea</t>
-        </is>
-      </c>
+      <c r="A87" t="inlineStr"/>
       <c r="B87" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
           <t>KOSDAQ</t>
         </is>
       </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Spain</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
       <c r="B88" t="inlineStr">
         <is>
+          <t>Spain</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
           <t>Madrid Stock Exchange</t>
         </is>
       </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sri Lanka</t>
-        </is>
-      </c>
+      <c r="A89" t="inlineStr"/>
       <c r="B89" t="inlineStr">
         <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
           <t>Colombo Stock Exchange</t>
         </is>
       </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sweden</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
       <c r="B90" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
           <t>Stockholm Stock Exchange</t>
         </is>
       </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Switzerland</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
       <c r="B91" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
           <t>Switzerland Stock Exchange</t>
         </is>
       </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Taiwan</t>
-        </is>
-      </c>
+      <c r="A92" t="inlineStr"/>
       <c r="B92" t="inlineStr">
         <is>
+          <t>Taiwan</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
           <t>Taiwan Stock Exchange</t>
         </is>
       </c>
-      <c r="C92" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tanzania</t>
-        </is>
-      </c>
+      <c r="A93" t="inlineStr"/>
       <c r="B93" t="inlineStr">
         <is>
+          <t>Tanzania</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
           <t>Dar Es Salaam Stock Exchange</t>
         </is>
       </c>
-      <c r="C93" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Thailand</t>
-        </is>
-      </c>
+      <c r="A94" t="inlineStr"/>
       <c r="B94" t="inlineStr">
         <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
           <t>Thailand Stock Exchange</t>
         </is>
       </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Tunisia</t>
-        </is>
-      </c>
+      <c r="A95" t="inlineStr"/>
       <c r="B95" t="inlineStr">
         <is>
+          <t>Tunisia</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
           <t>Tunis Stock Exchange</t>
         </is>
       </c>
-      <c r="C95" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Türkiye</t>
-        </is>
-      </c>
+      <c r="A96" t="inlineStr"/>
       <c r="B96" t="inlineStr">
         <is>
+          <t>Türkiye</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
           <t>Istanbul Stock Exchange</t>
         </is>
       </c>
-      <c r="C96" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ukraine</t>
-        </is>
-      </c>
+      <c r="A97" t="inlineStr"/>
       <c r="B97" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
           <t>Ukraine Stock Exchange</t>
         </is>
       </c>
-      <c r="C97" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> United Kingdom</t>
-        </is>
-      </c>
+      <c r="A98" t="inlineStr"/>
       <c r="B98" t="inlineStr">
         <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
           <t>Aquis Exchange</t>
         </is>
       </c>
-      <c r="C98" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Venezuela</t>
-        </is>
-      </c>
+      <c r="A99" t="inlineStr"/>
       <c r="B99" t="inlineStr">
         <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
           <t>Caracas Stock Exchange</t>
         </is>
       </c>
-      <c r="C99" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vietnam</t>
-        </is>
-      </c>
+      <c r="A100" t="inlineStr"/>
       <c r="B100" t="inlineStr">
         <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
           <t>Ho Chi Minh City Stock Exchange</t>
         </is>
       </c>
-      <c r="C100" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Vietnam</t>
-        </is>
-      </c>
+      <c r="A101" t="inlineStr"/>
       <c r="B101" t="inlineStr">
         <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
           <t>Hanoi Stock Exchange</t>
         </is>
       </c>
-      <c r="C101" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Zimbabwe</t>
-        </is>
-      </c>
+      <c r="A102" t="inlineStr"/>
       <c r="B102" t="inlineStr">
         <is>
+          <t>Zimbabwe</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
           <t>Zimbabwe Stock Exchange</t>
         </is>
       </c>
-      <c r="C102" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2329,7 +2329,7 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bosnia-Herzegovina</t>
+          <t>Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="C103" t="inlineStr">
@@ -2344,94 +2344,94 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China</t>
-        </is>
-      </c>
+      <c r="A104" t="inlineStr"/>
       <c r="B104" t="inlineStr">
         <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
           <t>Shanghai Stock Exchange</t>
         </is>
       </c>
-      <c r="C104" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China</t>
-        </is>
-      </c>
+      <c r="A105" t="inlineStr"/>
       <c r="B105" t="inlineStr">
         <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
           <t>Shenzhen Stock Exchange</t>
         </is>
       </c>
-      <c r="C105" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Montenegro</t>
-        </is>
-      </c>
+      <c r="A106" t="inlineStr"/>
       <c r="B106" t="inlineStr">
         <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
           <t>Montenegro Stock Exchange</t>
         </is>
       </c>
-      <c r="C106" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Serbia</t>
-        </is>
-      </c>
+      <c r="A107" t="inlineStr"/>
       <c r="B107" t="inlineStr">
         <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
           <t>Belgrade</t>
         </is>
       </c>
-      <c r="C107" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Slovenia</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
       <c r="B108" t="inlineStr">
         <is>
+          <t>Slovenia</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
           <t>Ljubljana Stock Exchange</t>
         </is>
       </c>
-      <c r="C108" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2441,7 +2441,7 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bosnia-Herzegovina</t>
+          <t>Bosnia-Herzegovina</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
@@ -2456,220 +2456,220 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bulgaria</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
       <c r="B110" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
           <t>Sofia Stock Exchange</t>
         </is>
       </c>
-      <c r="C110" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Good Friday</t>
         </is>
       </c>
-      <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China</t>
-        </is>
-      </c>
+      <c r="A111" t="inlineStr"/>
       <c r="B111" t="inlineStr">
         <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
           <t>Shanghai Stock Exchange</t>
         </is>
       </c>
-      <c r="C111" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> China</t>
-        </is>
-      </c>
+      <c r="A112" t="inlineStr"/>
       <c r="B112" t="inlineStr">
         <is>
+          <t>China</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
           <t>Shenzhen Stock Exchange</t>
         </is>
       </c>
-      <c r="C112" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cyprus</t>
-        </is>
-      </c>
+      <c r="A113" t="inlineStr"/>
       <c r="B113" t="inlineStr">
         <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
           <t>Cyprus Stock Exchange</t>
         </is>
       </c>
-      <c r="C113" t="inlineStr">
+      <c r="D113" t="inlineStr">
         <is>
           <t>Good Friday</t>
         </is>
       </c>
-      <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ecuador</t>
-        </is>
-      </c>
+      <c r="A114" t="inlineStr"/>
       <c r="B114" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
           <t>Quito Stock Exchange</t>
         </is>
       </c>
-      <c r="C114" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Greece</t>
-        </is>
-      </c>
+      <c r="A115" t="inlineStr"/>
       <c r="B115" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
           <t>Athens Stock Exchange</t>
         </is>
       </c>
-      <c r="C115" t="inlineStr">
+      <c r="D115" t="inlineStr">
         <is>
           <t>Good Friday</t>
         </is>
       </c>
-      <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Japan</t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr"/>
       <c r="B116" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
           <t>Tokyo Stock Exchange</t>
         </is>
       </c>
-      <c r="C116" t="inlineStr">
+      <c r="D116" t="inlineStr">
         <is>
           <t>Constitution Day</t>
         </is>
       </c>
-      <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lebanon</t>
-        </is>
-      </c>
+      <c r="A117" t="inlineStr"/>
       <c r="B117" t="inlineStr">
         <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
           <t>Beirut Stock Exchange</t>
         </is>
       </c>
-      <c r="C117" t="inlineStr">
+      <c r="D117" t="inlineStr">
         <is>
           <t>Good Friday</t>
         </is>
       </c>
-      <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Montenegro</t>
-        </is>
-      </c>
+      <c r="A118" t="inlineStr"/>
       <c r="B118" t="inlineStr">
         <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
           <t>Montenegro Stock Exchange</t>
         </is>
       </c>
-      <c r="C118" t="inlineStr">
+      <c r="D118" t="inlineStr">
         <is>
           <t>Good Friday</t>
         </is>
       </c>
-      <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Poland</t>
-        </is>
-      </c>
+      <c r="A119" t="inlineStr"/>
       <c r="B119" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
           <t>Warsaw Stock Exchange</t>
         </is>
       </c>
-      <c r="C119" t="inlineStr">
+      <c r="D119" t="inlineStr">
         <is>
           <t>Constitution Day</t>
         </is>
       </c>
-      <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Romania</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
       <c r="B120" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
           <t>Bucharest Stock Exchange</t>
         </is>
       </c>
-      <c r="C120" t="inlineStr">
+      <c r="D120" t="inlineStr">
         <is>
           <t>Good Friday</t>
         </is>
       </c>
-      <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Serbia</t>
-        </is>
-      </c>
+      <c r="A121" t="inlineStr"/>
       <c r="B121" t="inlineStr">
         <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
           <t>Belgrade</t>
         </is>
       </c>
-      <c r="C121" t="inlineStr">
+      <c r="D121" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -2679,7 +2679,7 @@
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bulgaria</t>
+          <t>Bulgaria</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
@@ -2694,310 +2694,310 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cayman Islands</t>
-        </is>
-      </c>
+      <c r="A123" t="inlineStr"/>
       <c r="B123" t="inlineStr">
         <is>
+          <t>Cayman Islands</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
           <t>Cayman Islands Stock Exchange</t>
         </is>
       </c>
-      <c r="C123" t="inlineStr">
+      <c r="D123" t="inlineStr">
         <is>
           <t>Discovery Day</t>
         </is>
       </c>
-      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Cyprus</t>
-        </is>
-      </c>
+      <c r="A124" t="inlineStr"/>
       <c r="B124" t="inlineStr">
         <is>
+          <t>Cyprus</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
           <t>Cyprus Stock Exchange</t>
         </is>
       </c>
-      <c r="C124" t="inlineStr">
+      <c r="D124" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Egypt</t>
-        </is>
-      </c>
+      <c r="A125" t="inlineStr"/>
       <c r="B125" t="inlineStr">
         <is>
+          <t>Egypt</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
           <t>Egypt Stock Exchange</t>
         </is>
       </c>
-      <c r="C125" t="inlineStr">
+      <c r="D125" t="inlineStr">
         <is>
           <t>Sham El Nessim</t>
         </is>
       </c>
-      <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Greece</t>
-        </is>
-      </c>
+      <c r="A126" t="inlineStr"/>
       <c r="B126" t="inlineStr">
         <is>
+          <t>Greece</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
           <t>Athens Stock Exchange</t>
         </is>
       </c>
-      <c r="C126" t="inlineStr">
+      <c r="D126" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
-      <c r="A127" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ireland</t>
-        </is>
-      </c>
+      <c r="A127" t="inlineStr"/>
       <c r="B127" t="inlineStr">
         <is>
+          <t>Ireland</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
           <t>Ireland Stock Exchange</t>
         </is>
       </c>
-      <c r="C127" t="inlineStr">
+      <c r="D127" t="inlineStr">
         <is>
           <t>Bank Holiday</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Japan</t>
-        </is>
-      </c>
+      <c r="A128" t="inlineStr"/>
       <c r="B128" t="inlineStr">
         <is>
+          <t>Japan</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
           <t>Tokyo Stock Exchange</t>
         </is>
       </c>
-      <c r="C128" t="inlineStr">
+      <c r="D128" t="inlineStr">
         <is>
           <t>Children's Day</t>
         </is>
       </c>
-      <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Latvia</t>
-        </is>
-      </c>
+      <c r="A129" t="inlineStr"/>
       <c r="B129" t="inlineStr">
         <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>NASDAQ OMX Riga</t>
         </is>
       </c>
-      <c r="C129" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>Independence Day</t>
         </is>
       </c>
-      <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Lebanon</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
       <c r="B130" t="inlineStr">
         <is>
+          <t>Lebanon</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
           <t>Beirut Stock Exchange</t>
         </is>
       </c>
-      <c r="C130" t="inlineStr">
+      <c r="D130" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Montenegro</t>
-        </is>
-      </c>
+      <c r="A131" t="inlineStr"/>
       <c r="B131" t="inlineStr">
         <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
           <t>Montenegro Stock Exchange</t>
         </is>
       </c>
-      <c r="C131" t="inlineStr">
+      <c r="D131" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Romania</t>
-        </is>
-      </c>
+      <c r="A132" t="inlineStr"/>
       <c r="B132" t="inlineStr">
         <is>
+          <t>Romania</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
           <t>Bucharest Stock Exchange</t>
         </is>
       </c>
-      <c r="C132" t="inlineStr">
+      <c r="D132" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Serbia</t>
-        </is>
-      </c>
+      <c r="A133" t="inlineStr"/>
       <c r="B133" t="inlineStr">
         <is>
+          <t>Serbia</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
           <t>Belgrade</t>
         </is>
       </c>
-      <c r="C133" t="inlineStr">
+      <c r="D133" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Korea</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
       <c r="B134" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
           <t>Seoul Stock Exchange</t>
         </is>
       </c>
-      <c r="C134" t="inlineStr">
+      <c r="D134" t="inlineStr">
         <is>
           <t>Substitution Holiday</t>
         </is>
       </c>
-      <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
-      <c r="A135" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Korea</t>
-        </is>
-      </c>
+      <c r="A135" t="inlineStr"/>
       <c r="B135" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
           <t>KOSDAQ</t>
         </is>
       </c>
-      <c r="C135" t="inlineStr">
+      <c r="D135" t="inlineStr">
         <is>
           <t>Substitution Holiday</t>
         </is>
       </c>
-      <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
-      <c r="A136" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Thailand</t>
-        </is>
-      </c>
+      <c r="A136" t="inlineStr"/>
       <c r="B136" t="inlineStr">
         <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
           <t>Thailand Stock Exchange</t>
         </is>
       </c>
-      <c r="C136" t="inlineStr">
+      <c r="D136" t="inlineStr">
         <is>
           <t>Coronation Day</t>
         </is>
       </c>
-      <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
-      <c r="A137" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ukraine</t>
-        </is>
-      </c>
+      <c r="A137" t="inlineStr"/>
       <c r="B137" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
           <t>Ukraine Stock Exchange</t>
         </is>
       </c>
-      <c r="C137" t="inlineStr">
+      <c r="D137" t="inlineStr">
         <is>
           <t>Easter</t>
         </is>
       </c>
-      <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> United Kingdom</t>
-        </is>
-      </c>
+      <c r="A138" t="inlineStr"/>
       <c r="B138" t="inlineStr">
         <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
           <t>Aquis Exchange</t>
         </is>
       </c>
-      <c r="C138" t="inlineStr">
+      <c r="D138" t="inlineStr">
         <is>
           <t>Bank Holiday</t>
         </is>
       </c>
-      <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
-      <c r="A139" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> United Kingdom</t>
-        </is>
-      </c>
+      <c r="A139" t="inlineStr"/>
       <c r="B139" t="inlineStr">
         <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
           <t>London Stock Exchange</t>
         </is>
       </c>
-      <c r="C139" t="inlineStr">
+      <c r="D139" t="inlineStr">
         <is>
           <t>Bank Holiday</t>
         </is>
       </c>
-      <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3007,7 +3007,7 @@
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Cyprus</t>
+          <t>Cyprus</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
@@ -3022,22 +3022,22 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kazakhstan</t>
-        </is>
-      </c>
+      <c r="A141" t="inlineStr"/>
       <c r="B141" t="inlineStr">
         <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
           <t>Kazakhstan Stock exchange</t>
         </is>
       </c>
-      <c r="C141" t="inlineStr">
+      <c r="D141" t="inlineStr">
         <is>
           <t>Defender of the Fatherland Day</t>
         </is>
       </c>
-      <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3047,7 +3047,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Czech Republic</t>
+          <t>Czech Republic</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -3062,40 +3062,40 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Slovakia</t>
-        </is>
-      </c>
+      <c r="A143" t="inlineStr"/>
       <c r="B143" t="inlineStr">
         <is>
+          <t>Slovakia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
           <t>Bratislava Stock Exchange</t>
         </is>
       </c>
-      <c r="C143" t="inlineStr">
+      <c r="D143" t="inlineStr">
         <is>
           <t>National Day</t>
         </is>
       </c>
-      <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sweden</t>
-        </is>
-      </c>
+      <c r="A144" t="inlineStr"/>
       <c r="B144" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
           <t>Stockholm Stock Exchange</t>
         </is>
       </c>
-      <c r="C144" t="inlineStr">
+      <c r="D144" t="inlineStr">
         <is>
           <t>Ascension Day - Early close at 13:00</t>
         </is>
       </c>
-      <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3105,7 +3105,7 @@
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Botswana</t>
+          <t>Botswana</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
@@ -3120,220 +3120,220 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Denmark</t>
-        </is>
-      </c>
+      <c r="A146" t="inlineStr"/>
       <c r="B146" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
           <t>Copenhagen Stock Exchange</t>
         </is>
       </c>
-      <c r="C146" t="inlineStr">
+      <c r="D146" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Estonia</t>
-        </is>
-      </c>
+      <c r="A147" t="inlineStr"/>
       <c r="B147" t="inlineStr">
         <is>
+          <t>Estonia</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
           <t>Tallinn Stock Exchange</t>
         </is>
       </c>
-      <c r="C147" t="inlineStr">
+      <c r="D147" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Finland</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
       <c r="B148" t="inlineStr">
         <is>
+          <t>Finland</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
           <t>Helsinki Stock Exchange</t>
         </is>
       </c>
-      <c r="C148" t="inlineStr">
+      <c r="D148" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iceland</t>
-        </is>
-      </c>
+      <c r="A149" t="inlineStr"/>
       <c r="B149" t="inlineStr">
         <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
           <t>Iceland Stock Exchange</t>
         </is>
       </c>
-      <c r="C149" t="inlineStr">
+      <c r="D149" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
-      <c r="A150" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Indonesia</t>
-        </is>
-      </c>
+      <c r="A150" t="inlineStr"/>
       <c r="B150" t="inlineStr">
         <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
           <t>Jakarta Stock Exchange</t>
         </is>
       </c>
-      <c r="C150" t="inlineStr">
+      <c r="D150" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
-      <c r="A151" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kazakhstan</t>
-        </is>
-      </c>
+      <c r="A151" t="inlineStr"/>
       <c r="B151" t="inlineStr">
         <is>
+          <t>Kazakhstan</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
           <t>Kazakhstan Stock exchange</t>
         </is>
       </c>
-      <c r="C151" t="inlineStr">
+      <c r="D151" t="inlineStr">
         <is>
           <t>National Day</t>
         </is>
       </c>
-      <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
-      <c r="A152" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Latvia</t>
-        </is>
-      </c>
+      <c r="A152" t="inlineStr"/>
       <c r="B152" t="inlineStr">
         <is>
+          <t>Latvia</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
           <t>NASDAQ OMX Riga</t>
         </is>
       </c>
-      <c r="C152" t="inlineStr">
+      <c r="D152" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
-      <c r="A153" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Norway</t>
-        </is>
-      </c>
+      <c r="A153" t="inlineStr"/>
       <c r="B153" t="inlineStr">
         <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
           <t>Oslo Stock Exchange</t>
         </is>
       </c>
-      <c r="C153" t="inlineStr">
+      <c r="D153" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
-      <c r="A154" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Russia</t>
-        </is>
-      </c>
+      <c r="A154" t="inlineStr"/>
       <c r="B154" t="inlineStr">
         <is>
+          <t>Russia</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
           <t>Moscow Stock Exchange</t>
         </is>
       </c>
-      <c r="C154" t="inlineStr">
+      <c r="D154" t="inlineStr">
         <is>
           <t>Victory Day</t>
         </is>
       </c>
-      <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
-      <c r="A155" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sweden</t>
-        </is>
-      </c>
+      <c r="A155" t="inlineStr"/>
       <c r="B155" t="inlineStr">
         <is>
+          <t>Sweden</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
           <t>Stockholm Stock Exchange</t>
         </is>
       </c>
-      <c r="C155" t="inlineStr">
+      <c r="D155" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Switzerland</t>
-        </is>
-      </c>
+      <c r="A156" t="inlineStr"/>
       <c r="B156" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
           <t>Switzerland Stock Exchange</t>
         </is>
       </c>
-      <c r="C156" t="inlineStr">
+      <c r="D156" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ukraine</t>
-        </is>
-      </c>
+      <c r="A157" t="inlineStr"/>
       <c r="B157" t="inlineStr">
         <is>
+          <t>Ukraine</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
           <t>Ukraine Stock Exchange</t>
         </is>
       </c>
-      <c r="C157" t="inlineStr">
+      <c r="D157" t="inlineStr">
         <is>
           <t>National Day</t>
         </is>
       </c>
-      <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3343,7 +3343,7 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Denmark</t>
+          <t>Denmark</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
@@ -3358,22 +3358,22 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Indonesia</t>
-        </is>
-      </c>
+      <c r="A159" t="inlineStr"/>
       <c r="B159" t="inlineStr">
         <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
           <t>Jakarta Stock Exchange</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr">
+      <c r="D159" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3383,7 +3383,7 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Colombia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
@@ -3398,40 +3398,40 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Israel</t>
-        </is>
-      </c>
+      <c r="A161" t="inlineStr"/>
       <c r="B161" t="inlineStr">
         <is>
+          <t>Israel</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
           <t>Tel Aviv Stock Exchange</t>
         </is>
       </c>
-      <c r="C161" t="inlineStr">
+      <c r="D161" t="inlineStr">
         <is>
           <t>Memorial Day</t>
         </is>
       </c>
-      <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Venezuela</t>
-        </is>
-      </c>
+      <c r="A162" t="inlineStr"/>
       <c r="B162" t="inlineStr">
         <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
           <t>Caracas Stock Exchange</t>
         </is>
       </c>
-      <c r="C162" t="inlineStr">
+      <c r="D162" t="inlineStr">
         <is>
           <t>Ascension Day</t>
         </is>
       </c>
-      <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -3441,7 +3441,7 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Israel</t>
+          <t>Israel</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
@@ -3463,7 +3463,7 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Hong Kong</t>
+          <t>Hong Kong</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
@@ -3478,40 +3478,40 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Korea</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
       <c r="B165" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
           <t>Seoul Stock Exchange</t>
         </is>
       </c>
-      <c r="C165" t="inlineStr">
+      <c r="D165" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> South Korea</t>
-        </is>
-      </c>
+      <c r="A166" t="inlineStr"/>
       <c r="B166" t="inlineStr">
         <is>
+          <t>South Korea</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
           <t>KOSDAQ</t>
         </is>
       </c>
-      <c r="C166" t="inlineStr">
+      <c r="D166" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -3521,7 +3521,7 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Norway</t>
+          <t>Norway</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
@@ -3543,7 +3543,7 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Canada</t>
+          <t>Canada</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
@@ -3558,148 +3558,148 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Canada</t>
-        </is>
-      </c>
+      <c r="A169" t="inlineStr"/>
       <c r="B169" t="inlineStr">
         <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
           <t>TSX Venture Exchange</t>
         </is>
       </c>
-      <c r="C169" t="inlineStr">
+      <c r="D169" t="inlineStr">
         <is>
           <t>Victoria Day</t>
         </is>
       </c>
-      <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
-      <c r="A170" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Canada</t>
-        </is>
-      </c>
+      <c r="A170" t="inlineStr"/>
       <c r="B170" t="inlineStr">
         <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
           <t>Canadian Securities Exchange</t>
         </is>
       </c>
-      <c r="C170" t="inlineStr">
+      <c r="D170" t="inlineStr">
         <is>
           <t>Victoria Day</t>
         </is>
       </c>
-      <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Canada</t>
-        </is>
-      </c>
+      <c r="A171" t="inlineStr"/>
       <c r="B171" t="inlineStr">
         <is>
+          <t>Canada</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
           <t>CBOE Canada Exchange</t>
         </is>
       </c>
-      <c r="C171" t="inlineStr">
+      <c r="D171" t="inlineStr">
         <is>
           <t>Victoria Day</t>
         </is>
       </c>
-      <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Denmark</t>
-        </is>
-      </c>
+      <c r="A172" t="inlineStr"/>
       <c r="B172" t="inlineStr">
         <is>
+          <t>Denmark</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
           <t>Copenhagen Stock Exchange</t>
         </is>
       </c>
-      <c r="C172" t="inlineStr">
+      <c r="D172" t="inlineStr">
         <is>
           <t>Pentecost</t>
         </is>
       </c>
-      <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Hungary</t>
-        </is>
-      </c>
+      <c r="A173" t="inlineStr"/>
       <c r="B173" t="inlineStr">
         <is>
+          <t>Hungary</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
           <t>Budapest Stock Exchange</t>
         </is>
       </c>
-      <c r="C173" t="inlineStr">
+      <c r="D173" t="inlineStr">
         <is>
           <t>Pentecost</t>
         </is>
       </c>
-      <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
-      <c r="A174" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Iceland</t>
-        </is>
-      </c>
+      <c r="A174" t="inlineStr"/>
       <c r="B174" t="inlineStr">
         <is>
+          <t>Iceland</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
           <t>Iceland Stock Exchange</t>
         </is>
       </c>
-      <c r="C174" t="inlineStr">
+      <c r="D174" t="inlineStr">
         <is>
           <t>Pentecost</t>
         </is>
       </c>
-      <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
-      <c r="A175" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Norway</t>
-        </is>
-      </c>
+      <c r="A175" t="inlineStr"/>
       <c r="B175" t="inlineStr">
         <is>
+          <t>Norway</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
           <t>Oslo Stock Exchange</t>
         </is>
       </c>
-      <c r="C175" t="inlineStr">
+      <c r="D175" t="inlineStr">
         <is>
           <t>Pentecost</t>
         </is>
       </c>
-      <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
-      <c r="A176" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Switzerland</t>
-        </is>
-      </c>
+      <c r="A176" t="inlineStr"/>
       <c r="B176" t="inlineStr">
         <is>
+          <t>Switzerland</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
           <t>Switzerland Stock Exchange</t>
         </is>
       </c>
-      <c r="C176" t="inlineStr">
+      <c r="D176" t="inlineStr">
         <is>
           <t>Pentecost</t>
         </is>
       </c>
-      <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -3709,7 +3709,7 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Chile</t>
+          <t>Chile</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
@@ -3724,22 +3724,22 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Montenegro</t>
-        </is>
-      </c>
+      <c r="A178" t="inlineStr"/>
       <c r="B178" t="inlineStr">
         <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
           <t>Montenegro Stock Exchange</t>
         </is>
       </c>
-      <c r="C178" t="inlineStr">
+      <c r="D178" t="inlineStr">
         <is>
           <t>Independence Day</t>
         </is>
       </c>
-      <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -3749,7 +3749,7 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaysia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
@@ -3764,58 +3764,58 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Montenegro</t>
-        </is>
-      </c>
+      <c r="A180" t="inlineStr"/>
       <c r="B180" t="inlineStr">
         <is>
+          <t>Montenegro</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
           <t>Montenegro Stock Exchange</t>
         </is>
       </c>
-      <c r="C180" t="inlineStr">
+      <c r="D180" t="inlineStr">
         <is>
           <t>Independence Day</t>
         </is>
       </c>
-      <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
-      <c r="A181" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Singapore</t>
-        </is>
-      </c>
+      <c r="A181" t="inlineStr"/>
       <c r="B181" t="inlineStr">
         <is>
+          <t>Singapore</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
           <t>Singapore Stock Exchange</t>
         </is>
       </c>
-      <c r="C181" t="inlineStr">
+      <c r="D181" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
-      <c r="A182" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Thailand</t>
-        </is>
-      </c>
+      <c r="A182" t="inlineStr"/>
       <c r="B182" t="inlineStr">
         <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
           <t>Thailand Stock Exchange</t>
         </is>
       </c>
-      <c r="C182" t="inlineStr">
+      <c r="D182" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -3825,7 +3825,7 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bangladesh</t>
+          <t>Bangladesh</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
@@ -3840,76 +3840,76 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Indonesia</t>
-        </is>
-      </c>
+      <c r="A184" t="inlineStr"/>
       <c r="B184" t="inlineStr">
         <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
           <t>Jakarta Stock Exchange</t>
         </is>
       </c>
-      <c r="C184" t="inlineStr">
+      <c r="D184" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
-      <c r="A185" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Jamaica</t>
-        </is>
-      </c>
+      <c r="A185" t="inlineStr"/>
       <c r="B185" t="inlineStr">
         <is>
+          <t>Jamaica</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
           <t>Jamaica Stock exchange</t>
         </is>
       </c>
-      <c r="C185" t="inlineStr">
-        <is>
-          <t>Labor Day</t>
-        </is>
-      </c>
-      <c r="D185" t="inlineStr"/>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Labor Day</t>
+        </is>
+      </c>
     </row>
     <row r="186">
-      <c r="A186" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Mongolia</t>
-        </is>
-      </c>
+      <c r="A186" t="inlineStr"/>
       <c r="B186" t="inlineStr">
         <is>
+          <t>Mongolia</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
           <t>Mongolia Stock exchange</t>
         </is>
       </c>
-      <c r="C186" t="inlineStr">
+      <c r="D186" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
-      <c r="A187" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sri Lanka</t>
-        </is>
-      </c>
+      <c r="A187" t="inlineStr"/>
       <c r="B187" t="inlineStr">
         <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
           <t>Colombo Stock Exchange</t>
         </is>
       </c>
-      <c r="C187" t="inlineStr">
+      <c r="D187" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -3919,7 +3919,7 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Bermuda</t>
+          <t>Bermuda</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
@@ -3934,76 +3934,76 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Bulgaria</t>
-        </is>
-      </c>
+      <c r="A189" t="inlineStr"/>
       <c r="B189" t="inlineStr">
         <is>
+          <t>Bulgaria</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
           <t>Sofia Stock Exchange</t>
         </is>
       </c>
-      <c r="C189" t="inlineStr">
+      <c r="D189" t="inlineStr">
         <is>
           <t>Cyrillic Alphabet and Slavic Culture Day</t>
         </is>
       </c>
-      <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Ecuador</t>
-        </is>
-      </c>
+      <c r="A190" t="inlineStr"/>
       <c r="B190" t="inlineStr">
         <is>
+          <t>Ecuador</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
           <t>Quito Stock Exchange</t>
         </is>
       </c>
-      <c r="C190" t="inlineStr">
+      <c r="D190" t="inlineStr">
         <is>
           <t>Battle of Pichincha</t>
         </is>
       </c>
-      <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
-      <c r="A191" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Indonesia</t>
-        </is>
-      </c>
+      <c r="A191" t="inlineStr"/>
       <c r="B191" t="inlineStr">
         <is>
+          <t>Indonesia</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
           <t>Jakarta Stock Exchange</t>
         </is>
       </c>
-      <c r="C191" t="inlineStr">
+      <c r="D191" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
-      <c r="A192" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Sri Lanka</t>
-        </is>
-      </c>
+      <c r="A192" t="inlineStr"/>
       <c r="B192" t="inlineStr">
         <is>
+          <t>Sri Lanka</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
           <t>Colombo Stock Exchange</t>
         </is>
       </c>
-      <c r="C192" t="inlineStr">
+      <c r="D192" t="inlineStr">
         <is>
           <t>Vesak Day</t>
         </is>
       </c>
-      <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4013,7 +4013,7 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t xml:space="preserve"> United Kingdom</t>
+          <t>United Kingdom</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
@@ -4028,40 +4028,40 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> United Kingdom</t>
-        </is>
-      </c>
+      <c r="A194" t="inlineStr"/>
       <c r="B194" t="inlineStr">
         <is>
+          <t>United Kingdom</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
           <t>Aquis Exchange</t>
         </is>
       </c>
-      <c r="C194" t="inlineStr">
+      <c r="D194" t="inlineStr">
         <is>
           <t>Bank Holiday</t>
         </is>
       </c>
-      <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> United States</t>
-        </is>
-      </c>
+      <c r="A195" t="inlineStr"/>
       <c r="B195" t="inlineStr">
         <is>
+          <t>United States</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
           <t>New York Stock Exchange</t>
         </is>
       </c>
-      <c r="C195" t="inlineStr">
+      <c r="D195" t="inlineStr">
         <is>
           <t>Memorial Day</t>
         </is>
       </c>
-      <c r="D195" t="inlineStr"/>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4071,7 +4071,7 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Brazil</t>
+          <t>Brazil</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
@@ -4086,58 +4086,58 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Croatia</t>
-        </is>
-      </c>
+      <c r="A197" t="inlineStr"/>
       <c r="B197" t="inlineStr">
         <is>
+          <t>Croatia</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
           <t>Zagreb Stock Exchange</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="D197" t="inlineStr">
         <is>
           <t>Corpus Christi Day</t>
         </is>
       </c>
-      <c r="D197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Malaysia</t>
-        </is>
-      </c>
+      <c r="A198" t="inlineStr"/>
       <c r="B198" t="inlineStr">
         <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
           <t>Kuala Lumpur Stock Exchange</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="D198" t="inlineStr">
         <is>
           <t>Harvest Festival - Early close at 12:30</t>
         </is>
       </c>
-      <c r="D198" t="inlineStr"/>
     </row>
     <row r="199">
-      <c r="A199" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Poland</t>
-        </is>
-      </c>
+      <c r="A199" t="inlineStr"/>
       <c r="B199" t="inlineStr">
         <is>
+          <t>Poland</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
           <t>Warsaw Stock Exchange</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="D199" t="inlineStr">
         <is>
           <t>Corpus Christi Day</t>
         </is>
       </c>
-      <c r="D199" t="inlineStr"/>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4147,7 +4147,7 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Malaysia</t>
+          <t>Malaysia</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
@@ -4169,7 +4169,7 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Colombia</t>
+          <t>Colombia</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
@@ -4184,94 +4184,94 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Kenya</t>
-        </is>
-      </c>
+      <c r="A202" t="inlineStr"/>
       <c r="B202" t="inlineStr">
         <is>
+          <t>Kenya</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
           <t>Kenya Stock Exchange</t>
         </is>
       </c>
-      <c r="C202" t="inlineStr">
+      <c r="D202" t="inlineStr">
         <is>
           <t>Madaraka Day</t>
         </is>
       </c>
-      <c r="D202" t="inlineStr"/>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Malaysia</t>
-        </is>
-      </c>
+      <c r="A203" t="inlineStr"/>
       <c r="B203" t="inlineStr">
         <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
           <t>Kuala Lumpur Stock Exchange</t>
         </is>
       </c>
-      <c r="C203" t="inlineStr">
+      <c r="D203" t="inlineStr">
         <is>
           <t>Yang Dipertuan Agong's Birthday</t>
         </is>
       </c>
-      <c r="D203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> New Zealand</t>
-        </is>
-      </c>
+      <c r="A204" t="inlineStr"/>
       <c r="B204" t="inlineStr">
         <is>
+          <t>New Zealand</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
           <t>New Zealand Exchange</t>
         </is>
       </c>
-      <c r="C204" t="inlineStr">
+      <c r="D204" t="inlineStr">
         <is>
           <t>King's Birthday</t>
         </is>
       </c>
-      <c r="D204" t="inlineStr"/>
     </row>
     <row r="205">
-      <c r="A205" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Thailand</t>
-        </is>
-      </c>
+      <c r="A205" t="inlineStr"/>
       <c r="B205" t="inlineStr">
         <is>
+          <t>Thailand</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
           <t>Thailand Stock Exchange</t>
         </is>
       </c>
-      <c r="C205" t="inlineStr">
+      <c r="D205" t="inlineStr">
         <is>
           <t>H.M. Queen Suthida Bajrasudhabimalalakshana's Birthday</t>
         </is>
       </c>
-      <c r="D205" t="inlineStr"/>
     </row>
     <row r="206">
-      <c r="A206" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Venezuela</t>
-        </is>
-      </c>
+      <c r="A206" t="inlineStr"/>
       <c r="B206" t="inlineStr">
         <is>
+          <t>Venezuela</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
           <t>Caracas Stock Exchange</t>
         </is>
       </c>
-      <c r="C206" t="inlineStr">
+      <c r="D206" t="inlineStr">
         <is>
           <t>Corpus Christi Day</t>
         </is>
       </c>
-      <c r="D206" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
